--- a/Registros de Usuários Colaboradores.xlsx
+++ b/Registros de Usuários Colaboradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">TIPO</t>
   </si>
   <si>
+    <t xml:space="preserve">SETOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pedro de Alcântara</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Colaborador</t>
   </si>
   <si>
+    <t xml:space="preserve">Mecânica</t>
+  </si>
+  <si>
     <t xml:space="preserve">João Carlos Leopoldo</t>
   </si>
   <si>
@@ -61,10 +67,103 @@
     <t xml:space="preserve">leocadio@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">DEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gabriel Rafael Gonzaga</t>
   </si>
   <si>
     <t xml:space="preserve">rafael@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique de Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henrique@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danilo Batista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danilo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Morais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur da Fonseca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artur@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ezequiel dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ezequiel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Paulo Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paulo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando de Assis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usinagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deodoro de Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deodoro@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalberto Fernandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adalberto@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Alonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquim Siqueira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joaquim@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Honório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricardo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -428,10 +527,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,7 +539,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,75 +555,314 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>12345</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>12346</v>
+        <v>12345</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -534,6 +872,19 @@
     <hyperlink ref="B4" r:id="rId3" display="francisco@gmail.com"/>
     <hyperlink ref="B5" r:id="rId4" display="leocadio@gmail.com"/>
     <hyperlink ref="B6" r:id="rId5" display="rafael@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="henrique@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="danilo@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId8" display="roberto@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId9" display="artur@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId10" display="tomas@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId11" display="ezequiel@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId12" display="paulo@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId13" display="fernando@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId14" display="deodoro@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId15" display="adalberto@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId16" display="edgar@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId17" display="joaquim@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId18" display="ricardo@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
